--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/work/项目资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8D4412-FECE-7240-8A0F-B36A0FEA95CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16D9ED9-30C3-0642-9D17-0616B9BFC2D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22020" yWindow="2680" windowWidth="28240" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
+    <workbookView xWindow="16200" yWindow="3980" windowWidth="28240" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>App Name</t>
   </si>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>App Store</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/bailianqianbao-test/manifest.plist</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,15 +180,6 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,11 +198,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -245,13 +237,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -566,7 +557,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -574,7 +565,7 @@
     <col min="1" max="1" width="25.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="3" customWidth="1"/>
     <col min="3" max="4" width="36.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="51" style="10" customWidth="1"/>
     <col min="7" max="8" width="36.6640625" style="4" customWidth="1"/>
   </cols>
@@ -648,7 +639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34">
+    <row r="4" spans="1:8" ht="51">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -663,6 +654,9 @@
       </c>
       <c r="E4" s="11" t="s">
         <v>27</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17">
@@ -684,10 +678,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{C3AF9369-EED3-3742-B0F2-B5C52F787028}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{75D3CBE9-FA0D-564D-9D71-E37E96439A12}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16D9ED9-30C3-0642-9D17-0616B9BFC2D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A5A181-E6D1-5D41-BA47-C5470EBAA440}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="3980" windowWidth="28240" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
+    <workbookView xWindow="2180" yWindow="5860" windowWidth="48560" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>App Name</t>
   </si>
@@ -41,9 +41,6 @@
     <t>App Id</t>
   </si>
   <si>
-    <t>download url</t>
-  </si>
-  <si>
     <t>易来宝</t>
   </si>
   <si>
@@ -82,14 +79,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>cdn地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipa文件名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>yilaibao.ipa</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -138,6 +127,96 @@
   </si>
   <si>
     <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/bailianqianbao-test/manifest.plist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.bl.9iyizu.com/downwx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cdn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>地址-测试环境</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cdn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>地址-正式环境</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cdn.pursedada.com/yilaibao-test.ipa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipa文件名-测试环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipa文件名-正式环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yilaibao-test.ipa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>download url-正式环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>download url-测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>环境</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/us/app/bai-lian-qian-bao/id1186203817?l=zh&amp;ls=1&amp;mt=8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +259,21 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,12 +292,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,9 +322,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -240,9 +334,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,23 +661,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCEB8C2-33D1-5C4E-AE1C-BE433D7026D2}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="3" customWidth="1"/>
-    <col min="3" max="4" width="36.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="51" style="10" customWidth="1"/>
-    <col min="7" max="8" width="36.6640625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="36.33203125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="47.6640625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="51" style="9" customWidth="1"/>
+    <col min="10" max="11" width="36.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:11" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,103 +688,150 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="64" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="51">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
+      <c r="I3" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="4" spans="1:11" ht="51">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
+      <c r="I4" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="5" spans="1:11" ht="34">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="51">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C472686C-FD30-3243-9270-87E45561DD57}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{CBF24CEC-4313-7243-86B1-DCA317CB2155}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A5A181-E6D1-5D41-BA47-C5470EBAA440}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD473074-D789-7544-A7A6-E906BEA57439}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="5860" windowWidth="48560" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
+    <workbookView xWindow="820" yWindow="5820" windowWidth="48560" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>App Name</t>
   </si>
@@ -44,187 +44,266 @@
     <t>易来宝</t>
   </si>
   <si>
+    <t>com.lxhj.LoanYilaibao</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/13699822173/yiqianbao/master/manifest.plist</t>
+  </si>
+  <si>
+    <t>http://yilaibao.yipurse.cn/down</t>
+  </si>
+  <si>
+    <t>H5下载地址（正式环境）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5下载地址（测试环境）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yilaibao.yipurse.com/down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.LoanSuperMarket.BLDEnterprise</t>
+  </si>
+  <si>
+    <t>钱达达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yilaibao.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLDCProgect.ipa</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/13699822173/QDDenterprise/master/manifest.plist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2.5.5</t>
-  </si>
-  <si>
-    <t>com.lxhj.LoanYilaibao</t>
-  </si>
-  <si>
-    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/13699822173/yiqianbao/master/manifest.plist</t>
-  </si>
-  <si>
-    <t>http://yilaibao.yipurse.cn/down</t>
-  </si>
-  <si>
-    <t>H5下载地址（正式环境）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5下载地址（测试环境）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yilaibao.yipurse.com/down</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.LoanSuperMarket.BLDEnterprise</t>
-  </si>
-  <si>
-    <t>钱达达</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>yilaibao.ipa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLDCProgect.ipa</t>
-  </si>
-  <si>
-    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/13699822173/QDDenterprise/master/manifest.plist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>佰联钱包-测试版</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>com.CSJF.www.BLQB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bailianqianbao-test.ipa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>佰联钱包-正式版</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bailianqianbao.ipa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://cdn.pursedada.com/yilaibao.ipa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://cdn.pursedada.com/bailianqianbao-test.ipa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>App Store</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/bailianqianbao-test/manifest.plist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://web.bl.9iyizu.com/downwx</t>
   </si>
   <si>
+    <t>http://cdn.pursedada.com/yilaibao-test.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipa文件名-测试环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipa文件名-正式环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yilaibao-test.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/us/app/bai-lian-qian-bao/id1186203817?l=zh&amp;ls=1&amp;mt=8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佰联钱包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>itms-services://?action=download-manifest&amp;url=</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://raw.githubusercontent.com/yipurse/APP-Release/master/YiLaiBao-test/manifest.plist</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="苹方-简 常规体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cdn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC Semibold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="苹方-简 常规体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC Semibold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正式环境</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="苹方-简 常规体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cdn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC Semibold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="苹方-简 常规体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC Semibold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试环境</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>cdn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>地址-测试环境</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cdn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>地址-正式环境</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://cdn.pursedada.com/yilaibao-test.ipa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipa文件名-测试环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipa文件名-正式环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>yilaibao-test.ipa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>download url-正式环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>download url-测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>环境</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/app/bai-lian-qian-bao/id1186203817?l=zh&amp;ls=1&amp;mt=8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>download url-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC Semibold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试环境</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="苹方-简 常规体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>download url-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC Semibold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正式环境</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,13 +317,6 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -254,25 +326,73 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="苹方-简 常规体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="PingFang SC Semibold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="PingFang SC"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="苹方-简 常规体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,64 +412,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -664,174 +774,156 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="3" customWidth="1"/>
-    <col min="3" max="5" width="36.33203125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="47.6640625" style="7" customWidth="1"/>
-    <col min="8" max="9" width="51" style="9" customWidth="1"/>
-    <col min="10" max="11" width="36.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" style="4" customWidth="1"/>
+    <col min="8" max="9" width="51" style="5" customWidth="1"/>
+    <col min="10" max="11" width="36.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="50" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="97" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="86" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="88" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>8</v>
+      <c r="K4" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="64" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="51">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="51">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="34">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="5" spans="1:11">
+      <c r="K5" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{C472686C-FD30-3243-9270-87E45561DD57}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{CBF24CEC-4313-7243-86B1-DCA317CB2155}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD473074-D789-7544-A7A6-E906BEA57439}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C5BDFC-8306-C448-BA2A-07FE485ECCD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="5820" windowWidth="48560" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>App Name</t>
   </si>
@@ -296,6 +296,10 @@
       </rPr>
       <t>正式环境</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cdn.pursedada.com/BLDCProgect.ipa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -368,13 +372,6 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="PingFang SC Semibold"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="PingFang SC"/>
       <family val="3"/>
       <charset val="134"/>
@@ -392,6 +389,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="PingFang SC Semibold"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -417,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,14 +452,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,7 +784,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -873,11 +880,11 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>15</v>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C5BDFC-8306-C448-BA2A-07FE485ECCD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9616118F-DF4D-574F-9677-09C60413E537}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="5820" windowWidth="48560" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.5.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>itms-services://?action=download-manifest&amp;url=</t>
     </r>
@@ -300,6 +296,10 @@
   </si>
   <si>
     <t>http://cdn.pursedada.com/BLDCProgect.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5.8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,6 +397,15 @@
       <color theme="1"/>
       <name val="PingFang SC Semibold"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,12 +425,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,9 +476,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -784,7 +800,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -817,16 +833,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>8</v>
@@ -840,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -858,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>5</v>
@@ -866,7 +882,7 @@
       <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -884,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>15</v>
@@ -931,6 +947,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{07091717-3E31-A542-BFA7-AC581BE35BD1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9616118F-DF4D-574F-9677-09C60413E537}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D46156-1CCC-8749-B338-82DB36AFF1D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="5820" windowWidth="48560" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>App Name</t>
   </si>
@@ -299,7 +299,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.5.8</t>
+    <t>2.6.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lxhj.yiqianbao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新翼钱包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7.6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +812,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -943,6 +955,15 @@
       </c>
     </row>
     <row r="5" spans="1:11">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="K5" s="4"/>
     </row>
   </sheetData>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D46156-1CCC-8749-B338-82DB36AFF1D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B099E37-353E-744E-85E7-187B98B77E38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="5820" windowWidth="48560" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>App Name</t>
   </si>
@@ -311,7 +311,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.7.6</t>
+    <t>3.0.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiqianbao-test.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiqianbao.ipa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +820,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -964,6 +972,12 @@
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="K5" s="4"/>
     </row>
   </sheetData>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B099E37-353E-744E-85E7-187B98B77E38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78903A-34C2-1440-A7AB-CA38B220A372}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="5820" windowWidth="48560" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>App Name</t>
   </si>
@@ -320,6 +320,10 @@
   </si>
   <si>
     <t>yiqianbao.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/yiqianbao-test/manifest.plist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +824,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -962,7 +966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="100" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
@@ -977,6 +981,9 @@
       </c>
       <c r="E5" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="K5" s="4"/>
     </row>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78903A-34C2-1440-A7AB-CA38B220A372}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AEE9C1-EF27-AB46-95E3-0D9BBCD8AE69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="5820" windowWidth="48560" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>App Name</t>
   </si>
@@ -324,6 +324,10 @@
   </si>
   <si>
     <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/yiqianbao-test/manifest.plist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/yiqianbao/manifest.plist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +828,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -985,6 +989,9 @@
       <c r="H5" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="K5" s="4"/>
     </row>
   </sheetData>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AEE9C1-EF27-AB46-95E3-0D9BBCD8AE69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F7C2A-84CB-DE4E-AE3F-73FE5C4E50EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="5820" windowWidth="48560" windowHeight="17440" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
+    <workbookView xWindow="0" yWindow="2020" windowWidth="48560" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>App Name</t>
   </si>
@@ -328,6 +328,14 @@
   </si>
   <si>
     <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/yiqianbao/manifest.plist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cdn.pursedada.com/yiqianbao-test.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cdn.pursedada.com/yiqianbao.ipa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -506,6 +514,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -986,10 +997,16 @@
       <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="F5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K5" s="4"/>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F7C2A-84CB-DE4E-AE3F-73FE5C4E50EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B4285A-9F4B-2346-B7C1-7254067E0F67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2020" windowWidth="48560" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>App Name</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>com.lxhj.LoanYilaibao</t>
-  </si>
-  <si>
-    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/13699822173/yiqianbao/master/manifest.plist</t>
   </si>
   <si>
     <t>http://yilaibao.yipurse.cn/down</t>
@@ -311,10 +308,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.0.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>yiqianbao-test.ipa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -336,6 +329,22 @@
   </si>
   <si>
     <t>http://cdn.pursedada.com/yiqianbao.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/13699822173/yiqianbao/master/manifest.plist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后更新时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.23</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -433,15 +442,6 @@
       <color theme="1"/>
       <name val="PingFang SC Semibold"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -461,11 +461,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -512,16 +509,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -833,29 +829,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCEB8C2-33D1-5C4E-AE1C-BE433D7026D2}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="37.1640625" style="4" customWidth="1"/>
-    <col min="8" max="9" width="51" style="5" customWidth="1"/>
-    <col min="10" max="11" width="36.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="51" style="5" customWidth="1"/>
+    <col min="11" max="12" width="36.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="50" customHeight="1">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="50" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -863,159 +860,163 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="97" customHeight="1">
+    <row r="2" spans="1:12" ht="97" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="86" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="88" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="100" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="86" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="88" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="100" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{07091717-3E31-A542-BFA7-AC581BE35BD1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B4285A-9F4B-2346-B7C1-7254067E0F67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7468544-70D5-734D-B595-2D583752EFC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2020" windowWidth="48560" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>App Name</t>
   </si>
@@ -345,6 +345,30 @@
   </si>
   <si>
     <t>2019.10.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速龙贷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sulongdai-test.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cdn.pursedada.com/sulongdai-test.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lxhj.sulongloan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sulongdai.ipa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -829,13 +853,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCEB8C2-33D1-5C4E-AE1C-BE433D7026D2}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1015,6 +1039,26 @@
       </c>
       <c r="L5" s="4"/>
     </row>
+    <row r="6" spans="1:12" ht="108" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7468544-70D5-734D-B595-2D583752EFC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17025F9D-9537-BB4F-A1DD-03DCA4162DE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2020" windowWidth="48560" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>App Name</t>
   </si>
@@ -369,6 +369,10 @@
   </si>
   <si>
     <t>sulongdai.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/sulongdai-test/manifest.plist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +863,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1058,6 +1062,9 @@
       <c r="G6" s="14" t="s">
         <v>52</v>
       </c>
+      <c r="I6" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17025F9D-9537-BB4F-A1DD-03DCA4162DE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ACA6B9-5AE4-A546-B093-3ACD9C2C7DF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2020" windowWidth="48560" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>App Name</t>
   </si>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/sulongdai-test/manifest.plist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cdn.pursedada.com/sulongdai.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/sulongdai/manifest.plist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -863,7 +875,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1050,6 +1062,9 @@
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>53</v>
       </c>
@@ -1062,8 +1077,14 @@
       <c r="G6" s="14" t="s">
         <v>52</v>
       </c>
+      <c r="H6" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="I6" s="14" t="s">
         <v>55</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ACA6B9-5AE4-A546-B093-3ACD9C2C7DF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB176CC1-4278-9C4B-98AE-CBB62E37E96E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2020" windowWidth="48560" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>App Name</t>
   </si>
@@ -336,18 +336,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>最后更新时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2019.10.23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>速龙贷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -384,7 +376,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2019.11.7</t>
+    <t>2019.11.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +871,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -900,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1027,10 +1023,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
@@ -1057,34 +1053,34 @@
     </row>
     <row r="6" spans="1:12" ht="108" customHeight="1">
       <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB176CC1-4278-9C4B-98AE-CBB62E37E96E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97122C11-7756-0C48-82DB-E325C5130D79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2020" windowWidth="48560" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
+    <workbookView xWindow="0" yWindow="2020" windowWidth="51080" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,18 +47,11 @@
     <t>com.lxhj.LoanYilaibao</t>
   </si>
   <si>
-    <t>http://yilaibao.yipurse.cn/down</t>
-  </si>
-  <si>
     <t>H5下载地址（正式环境）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>H5下载地址（测试环境）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yilaibao.yipurse.com/down</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -381,6 +374,14 @@
   </si>
   <si>
     <t>3.0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yilaibao.yipurse.cn/down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yilaibao.yipurse.com/downrandom</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,8 +549,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +872,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -885,7 +886,8 @@
     <col min="7" max="7" width="31.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="37.1640625" style="4" customWidth="1"/>
     <col min="9" max="10" width="51" style="5" customWidth="1"/>
-    <col min="11" max="12" width="36.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="36.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="43.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="9" customFormat="1" ht="50" customHeight="1">
@@ -896,34 +898,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="97" customHeight="1">
@@ -931,156 +933,156 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="86" customHeight="1">
       <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="88" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1">
       <c r="A5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="108" customHeight="1">
       <c r="A6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97122C11-7756-0C48-82DB-E325C5130D79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8565F581-C84E-514C-BC80-46CC8275E726}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2020" windowWidth="51080" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>App Name</t>
   </si>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.0.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>com.LoanSuperMarket.BLDEnterprise</t>
   </si>
   <si>
@@ -68,9 +64,6 @@
   <si>
     <t>yilaibao.ipa</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLDCProgect.ipa</t>
   </si>
   <si>
     <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/13699822173/QDDenterprise/master/manifest.plist</t>
@@ -382,6 +375,22 @@
   </si>
   <si>
     <t>http://yilaibao.yipurse.com/downrandom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLDCProgect.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiandada-test.ipa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,9 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -872,7 +878,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -884,7 +890,7 @@
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="4" customWidth="1"/>
     <col min="9" max="10" width="51" style="5" customWidth="1"/>
     <col min="11" max="11" width="36.6640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="43.83203125" style="3" customWidth="1"/>
@@ -898,28 +904,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>6</v>
@@ -933,156 +939,162 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="86" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="88" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1">
       <c r="A5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="108" customHeight="1">
       <c r="A6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8565F581-C84E-514C-BC80-46CC8275E726}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAFB4D2-4C7F-A94D-AD54-E74C12E1A4DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2020" windowWidth="51080" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>App Name</t>
   </si>
@@ -391,6 +391,22 @@
   </si>
   <si>
     <t>qiandada-test.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qdyz.yipurse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cdn.pursedada.com/resigned.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resigned.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resigned-test.ipa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -872,13 +888,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCEB8C2-33D1-5C4E-AE1C-BE433D7026D2}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1065,35 +1081,68 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="108" customHeight="1">
+    <row r="6" spans="1:12" ht="100" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="108" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>51</v>
       </c>
     </row>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAFB4D2-4C7F-A94D-AD54-E74C12E1A4DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10239D07-1D8E-8E41-8C87-72EF63E19B1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2020" windowWidth="51080" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>App Name</t>
   </si>
@@ -407,6 +407,43 @@
   </si>
   <si>
     <t>resigned-test.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lxhj.dcyiqianbao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcyiqianbao-test.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcyiqianbao.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cdn.pursedada.com/dcyiqianbao-test.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cdn.pursedada.com/dcyiqianbao.ipa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/dcyiqianbao-test/manifest.plist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/dcyiqianbao/manifest.plist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新翼钱包2
+(翼钱包+钱达达)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,6 +610,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,24 +931,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCEB8C2-33D1-5C4E-AE1C-BE433D7026D2}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="30.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="44.6640625" style="4" customWidth="1"/>
     <col min="9" max="10" width="51" style="5" customWidth="1"/>
     <col min="11" max="11" width="36.6640625" style="3" customWidth="1"/>
@@ -931,7 +974,7 @@
       <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -1082,67 +1125,100 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>34</v>
+      <c r="A6" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="108" customHeight="1">
+    <row r="7" spans="1:12" ht="100" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="108" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>51</v>
       </c>
     </row>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10239D07-1D8E-8E41-8C87-72EF63E19B1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBB328C-ED2E-664F-91A4-5CA241D345AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2020" windowWidth="51080" windowHeight="19120" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51080" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,12 +438,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/dcyiqianbao/manifest.plist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>新翼钱包2
 (翼钱包+钱达达)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/dcyiqianbao/manifest.plist.plist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +937,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>44</v>
@@ -1153,7 +1153,7 @@
         <v>70</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" s="4"/>
     </row>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBB328C-ED2E-664F-91A4-5CA241D345AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC2C1D-0E36-B04D-A6EC-BA39D2A23AE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51080" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
@@ -443,7 +443,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/dcyiqianbao/manifest.plist.plist</t>
+    <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/dcyiqianbao/manifest.plist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +937,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC2C1D-0E36-B04D-A6EC-BA39D2A23AE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD603F41-21A7-0746-B1F3-4E5D266E9370}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51080" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24800" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>App Name</t>
   </si>
@@ -326,10 +326,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>速龙贷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.0.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -342,10 +338,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com.lxhj.sulongloan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sulongdai.ipa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -411,10 +403,6 @@
   </si>
   <si>
     <t>2019.12.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.lxhj.dcyiqianbao</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -444,6 +432,53 @@
   </si>
   <si>
     <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/dcyiqianbao/manifest.plist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速龙贷2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lxhj.sulongdai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lxhj.sulongloan【废】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账号
+2252774830@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建bundle id的账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业账号
+dy_guangfa@sina.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.LoanSuperMarket.Enterprise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非企业账号
+wfmicrofinance@sina.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新翼钱包【废】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速龙贷1【废】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -587,21 +622,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,6 +641,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -931,18 +966,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCEB8C2-33D1-5C4E-AE1C-BE433D7026D2}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="30.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" style="2" customWidth="1"/>
@@ -952,11 +987,11 @@
     <col min="8" max="8" width="44.6640625" style="4" customWidth="1"/>
     <col min="9" max="10" width="51" style="5" customWidth="1"/>
     <col min="11" max="11" width="36.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="43.83203125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="43.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="50" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="50" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -974,27 +1009,30 @@
       <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="16" t="s">
         <v>5</v>
       </c>
+      <c r="M1" s="16" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="97" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:13" ht="97" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1022,33 +1060,36 @@
       <c r="J2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="86" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="86" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1058,9 +1099,12 @@
         <v>10</v>
       </c>
       <c r="K3" s="4"/>
+      <c r="M3" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="88" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:13" ht="88" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1090,16 +1134,17 @@
       <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="100" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:13" ht="100" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -1110,10 +1155,10 @@
       <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -1123,64 +1168,70 @@
         <v>38</v>
       </c>
       <c r="L5" s="4"/>
+      <c r="M5" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="100" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>71</v>
+    <row r="6" spans="1:13" ht="100" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="J6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="L6" s="4"/>
+      <c r="M6" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="100" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>34</v>
+    <row r="7" spans="1:13" ht="100" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>61</v>
+      <c r="H7" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>37</v>
@@ -1189,37 +1240,73 @@
         <v>38</v>
       </c>
       <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="108" customHeight="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:13" ht="108" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="108" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="I9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD603F41-21A7-0746-B1F3-4E5D266E9370}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C205FA-5B78-FA4C-9103-82C20505D9DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24800" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
+    <workbookView xWindow="8500" yWindow="3480" windowWidth="24800" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>App Name</t>
   </si>
@@ -402,10 +402,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2019.12.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dcyiqianbao-test.ipa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -479,6 +475,14 @@
   </si>
   <si>
     <t>速龙贷1【废】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.01.06</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -969,10 +973,10 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1028,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="97" customHeight="1">
@@ -1067,7 +1071,7 @@
         <v>53</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="86" customHeight="1">
@@ -1100,7 +1104,7 @@
       </c>
       <c r="K3" s="4"/>
       <c r="M3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="88" customHeight="1">
@@ -1169,51 +1173,51 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="100" customHeight="1">
       <c r="A6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="100" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>50</v>
@@ -1244,7 +1248,7 @@
     </row>
     <row r="8" spans="1:13" ht="108" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>43</v>
@@ -1253,7 +1257,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>44</v>
@@ -1274,21 +1278,21 @@
         <v>49</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="108" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C205FA-5B78-FA4C-9103-82C20505D9DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE10F0E6-5446-244F-ABC9-2A357522B6A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="3480" windowWidth="24800" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
+    <workbookView xWindow="7980" yWindow="5620" windowWidth="24800" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>App Name</t>
   </si>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>com.LoanSuperMarket.BLDEnterprise</t>
-  </si>
-  <si>
-    <t>钱达达</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>yilaibao.ipa</t>
@@ -290,10 +286,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新翼钱包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>yiqianbao-test.ipa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -370,10 +362,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2019.11.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2.0.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -419,11 +407,6 @@
   </si>
   <si>
     <t>itms-services://?action=download-manifest&amp;url=https://raw.githubusercontent.com/yipurse/APP-Release/master/dcyiqianbao-test/manifest.plist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新翼钱包2
-(翼钱包+钱达达)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -456,11 +439,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>企业账号
-dy_guangfa@sina.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>com.LoanSuperMarket.Enterprise</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -470,10 +448,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新翼钱包【废】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>速龙贷1【废】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -482,7 +456,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2019.01.06</t>
+    <t>新翼钱包1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新翼钱包2【废】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新翼钱包3
+(翼钱包+钱达达)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.1.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非企业账号
+dy_guangfa@sina.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非企业账号
+yizu_lease@sina.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱达达1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱达达2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -970,13 +979,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCEB8C2-33D1-5C4E-AE1C-BE433D7026D2}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1002,28 +1011,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>6</v>
@@ -1032,285 +1041,321 @@
         <v>5</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="97" customHeight="1">
+    <row r="2" spans="1:13" ht="88" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="97" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="100" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="86" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="M3" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="88" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="100" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="100" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="J6" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="100" customHeight="1">
+    <row r="7" spans="1:13" ht="86" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="M7" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="86" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="108" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K8" s="4"/>
       <c r="M8" s="10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="108" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="H9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="108" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="J10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>49</v>
+      <c r="M10" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE10F0E6-5446-244F-ABC9-2A357522B6A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF388856-C5AF-294D-846A-E2625472E00D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="5620" windowWidth="24800" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
+    <workbookView xWindow="8300" yWindow="5620" windowWidth="24800" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>App Name</t>
   </si>
@@ -414,10 +414,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>速龙贷2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2019.12.18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -492,6 +488,35 @@
   </si>
   <si>
     <t>钱达达2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.01.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速龙贷3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速龙贷2【废】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lxhj.sldLoan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppStore下载地址：
+https://itunes.apple.com/cn/app/id1493158234?mt=8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -979,13 +1004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCEB8C2-33D1-5C4E-AE1C-BE433D7026D2}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1041,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="88" customHeight="1">
@@ -1113,12 +1138,12 @@
         <v>51</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="100" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>49</v>
@@ -1149,15 +1174,15 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="100" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
@@ -1188,16 +1213,16 @@
     </row>
     <row r="6" spans="1:13" ht="100" customHeight="1">
       <c r="A6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>59</v>
@@ -1219,18 +1244,18 @@
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="86" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1241,7 +1266,7 @@
       <c r="F7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -1251,22 +1276,22 @@
         <v>9</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="M7" s="10" t="s">
-        <v>69</v>
+      <c r="M7" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="86" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>54</v>
@@ -1285,12 +1310,12 @@
       </c>
       <c r="K8" s="4"/>
       <c r="M8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="108" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>41</v>
@@ -1299,7 +1324,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>42</v>
@@ -1320,21 +1345,21 @@
         <v>47</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="108" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
@@ -1355,7 +1380,30 @@
         <v>47</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="108" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/APPS.xlsx
+++ b/APPS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/code/APP-Release/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/work/code/APP-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF388856-C5AF-294D-846A-E2625472E00D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B716A14-4486-E74C-8012-F818E7AD40BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="5620" windowWidth="24800" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
+    <workbookView xWindow="9320" yWindow="5960" windowWidth="39640" windowHeight="20680" xr2:uid="{E4814B11-844E-4D4D-9BF4-E3D3111B8FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t>App Name</t>
   </si>
@@ -495,14 +495,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.01.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>速龙贷3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -517,6 +509,51 @@
   <si>
     <t>AppStore下载地址：
 https://itunes.apple.com/cn/app/id1493158234?mt=8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.05.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.5.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lxhj.dcyipurse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppStore下载地址：
+https://itunes.apple.com/cn/app/id1513131396?mt=8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非企业账号
+yizu_lease@sina.com
+哈尔滨龙商小贷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>download url-AppStore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新翼钱包4
+(翼钱包+钱达达)
+此版本添加了控制贷超功能隐藏</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -616,12 +653,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -638,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +731,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1004,13 +1068,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCEB8C2-33D1-5C4E-AE1C-BE433D7026D2}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1023,12 +1087,12 @@
     <col min="6" max="6" width="30.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="44.6640625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="51" style="5" customWidth="1"/>
-    <col min="11" max="11" width="36.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="43.83203125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="51" style="5" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="43.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="50" customHeight="1">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="50" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1059,17 +1123,20 @@
       <c r="J1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="88" customHeight="1">
+    <row r="2" spans="1:14" ht="88" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -1097,12 +1164,13 @@
       <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="97" customHeight="1">
+    <row r="3" spans="1:14" ht="97" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -1131,17 +1199,18 @@
       <c r="J3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="100" customHeight="1">
+    <row r="4" spans="1:14" ht="100" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -1172,12 +1241,13 @@
       <c r="J4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="10" t="s">
+      <c r="K4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="100" customHeight="1">
+    <row r="5" spans="1:14" ht="100" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
@@ -1208,10 +1278,11 @@
       <c r="J5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="100" customHeight="1">
+    <row r="6" spans="1:14" ht="100" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>76</v>
       </c>
@@ -1242,56 +1313,64 @@
       <c r="J6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="10" t="s">
+      <c r="K6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="86" customHeight="1">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:14" s="21" customFormat="1" ht="129" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="86" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="86" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>54</v>
@@ -1299,7 +1378,10 @@
       <c r="F8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1309,57 +1391,60 @@
         <v>9</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="M8" s="10" t="s">
+      <c r="L8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="86" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="N9" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="108" customHeight="1">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:14" ht="108" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="108" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
@@ -1379,31 +1464,85 @@
       <c r="J10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="K10" s="4"/>
+      <c r="N10" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="108" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="N11" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="108" customHeight="1">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:14" s="21" customFormat="1" ht="108" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>80</v>
+      <c r="E12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="19" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
